--- a/Luban/DataTables/Datas/__tables__.xlsx
+++ b/Luban/DataTables/Datas/__tables__.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityPorjects\Luban\DataTables\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MonsterKingdom\Luban\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AFEB75-0B21-4C94-BF53-E295A59C4526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -103,20 +102,26 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>DefineFromExcel2</t>
-  </si>
-  <si>
-    <t>test/define_from_excel.xlsx</t>
-  </si>
-  <si>
-    <t>Battle.TbDefineFromExcel2</t>
+    <t>monster/monster.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TblMonster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,28 +469,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="9.125" customWidth="1"/>
+    <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -552,7 +557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -575,18 +580,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/DataTables/Datas/__tables__.xlsx
+++ b/Luban/DataTables/Datas/__tables__.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -115,6 +115,21 @@
   </si>
   <si>
     <t>怪物表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TblSkill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>monster/skill.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -597,6 +612,23 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/DataTables/Datas/__tables__.xlsx
+++ b/Luban/DataTables/Datas/__tables__.xlsx
@@ -125,11 +125,11 @@
     <t>Skill</t>
   </si>
   <si>
-    <t>monster/skill.xlsx</t>
+    <t>技能表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>技能表</t>
+    <t>monster/learn@skill.xlsx,monster/born@skill.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +488,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -623,10 +623,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
         <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/DataTables/Datas/__tables__.xlsx
+++ b/Luban/DataTables/Datas/__tables__.xlsx
@@ -106,10 +106,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Monster</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TblMonster</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -122,14 +118,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Skill</t>
-  </si>
-  <si>
     <t>技能表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>monster/learn@skill.xlsx,monster/born@skill.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterCfg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillCfg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +489,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -597,10 +598,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -609,24 +610,24 @@
         <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/DataTables/Datas/__tables__.xlsx
+++ b/Luban/DataTables/Datas/__tables__.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -122,15 +122,73 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>monster/learn@skill.xlsx,monster/born@skill.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>MonsterCfg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SkillCfg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster/point@skill.xlsx,monster/magic@skill.xlsx,monster/born@skill.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TblBuff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cfg</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>monster/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>buff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -486,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -601,7 +659,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -618,16 +676,30 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
